--- a/src/test/java/day12_webtables_excel/ulkeler.xlsx
+++ b/src/test/java/day12_webtables_excel/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="580">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1782,6 +1782,15 @@
   </si>
   <si>
     <t>1000000</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>3000000</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2292,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>573</v>
@@ -2352,6 +2361,9 @@
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
